--- a/PolarIs-Individual-Corpora/PolarIs-Individual-Corpora-Pathos/PolarIs-3-Pathos.xlsx
+++ b/PolarIs-Individual-Corpora/PolarIs-Individual-Corpora-Pathos/PolarIs-3-Pathos.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Positive_pathos</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Negative_pathos</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
